--- a/Code/Results/Cases/Case_1_72/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_72/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.7817158469799779</v>
+        <v>1.018551740108789</v>
       </c>
       <c r="D2">
-        <v>1.022442482502206</v>
+        <v>1.032085247126693</v>
       </c>
       <c r="E2">
-        <v>0.8124096476474548</v>
+        <v>1.019260231493731</v>
       </c>
       <c r="F2">
-        <v>0.8364089203450426</v>
+        <v>1.029400682875663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035497413569695</v>
+        <v>1.031357216112601</v>
       </c>
       <c r="J2">
-        <v>0.8131878530261031</v>
+        <v>1.023759529937032</v>
       </c>
       <c r="K2">
-        <v>1.033597767183442</v>
+        <v>1.03489149598025</v>
       </c>
       <c r="L2">
-        <v>0.8272938968941355</v>
+        <v>1.022104006589257</v>
       </c>
       <c r="M2">
-        <v>0.8507409024287383</v>
+        <v>1.032214702682984</v>
       </c>
       <c r="N2">
-        <v>0.8143426730513503</v>
+        <v>1.025213385896405</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.8295877412088992</v>
+        <v>1.02259471592138</v>
       </c>
       <c r="D3">
-        <v>1.027291110609567</v>
+        <v>1.032658129095715</v>
       </c>
       <c r="E3">
-        <v>0.8540749142307646</v>
+        <v>1.022825377187387</v>
       </c>
       <c r="F3">
-        <v>0.8759416050806944</v>
+        <v>1.03286524420154</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038853004796073</v>
+        <v>1.03157668253968</v>
       </c>
       <c r="J3">
-        <v>0.8561175538944596</v>
+        <v>1.027422724284277</v>
       </c>
       <c r="K3">
-        <v>1.037586310230382</v>
+        <v>1.035273708230464</v>
       </c>
       <c r="L3">
-        <v>0.8669920735478951</v>
+        <v>1.025467570921765</v>
       </c>
       <c r="M3">
-        <v>0.8884535120397075</v>
+        <v>1.035480268625895</v>
       </c>
       <c r="N3">
-        <v>0.8573333390190458</v>
+        <v>1.028881782399794</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.8538757049280135</v>
+        <v>1.025180922297191</v>
       </c>
       <c r="D4">
-        <v>1.029986061538759</v>
+        <v>1.033026052783916</v>
       </c>
       <c r="E4">
-        <v>0.8752945319393086</v>
+        <v>1.025104623030046</v>
       </c>
       <c r="F4">
-        <v>0.8962382298522122</v>
+        <v>1.035079352626473</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04060364475607</v>
+        <v>1.031714758696313</v>
       </c>
       <c r="J4">
-        <v>0.8779332964572765</v>
+        <v>1.029764225318075</v>
       </c>
       <c r="K4">
-        <v>1.039735565583883</v>
+        <v>1.035517561627465</v>
       </c>
       <c r="L4">
-        <v>0.887174216441166</v>
+        <v>1.027616456917203</v>
       </c>
       <c r="M4">
-        <v>0.9077744078533336</v>
+        <v>1.037565647778943</v>
       </c>
       <c r="N4">
-        <v>0.8791800624386024</v>
+        <v>1.031226608633634</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.863092754093867</v>
+        <v>1.026261261467706</v>
       </c>
       <c r="D5">
-        <v>1.031049842108804</v>
+        <v>1.033180078000812</v>
       </c>
       <c r="E5">
-        <v>0.8833581615309331</v>
+        <v>1.026056420764929</v>
       </c>
       <c r="F5">
-        <v>0.9039761733727361</v>
+        <v>1.036003739637638</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041274271055195</v>
+        <v>1.031771877700203</v>
       </c>
       <c r="J5">
-        <v>0.8862154707177023</v>
+        <v>1.030741918991965</v>
       </c>
       <c r="K5">
-        <v>1.040571847982413</v>
+        <v>1.035619261703682</v>
       </c>
       <c r="L5">
-        <v>0.8948364182873659</v>
+        <v>1.028513462220322</v>
       </c>
       <c r="M5">
-        <v>0.9151324619203681</v>
+        <v>1.038435918074989</v>
       </c>
       <c r="N5">
-        <v>0.8874739983364568</v>
+        <v>1.032205690744684</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.8645921042102028</v>
+        <v>1.02644225750902</v>
       </c>
       <c r="D6">
-        <v>1.031225014060346</v>
+        <v>1.033205901772067</v>
       </c>
       <c r="E6">
-        <v>0.884670385522516</v>
+        <v>1.026215862923247</v>
       </c>
       <c r="F6">
-        <v>0.9052366190576492</v>
+        <v>1.03615857742619</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041383630929707</v>
+        <v>1.031781414182662</v>
       </c>
       <c r="J6">
-        <v>0.8875628497431961</v>
+        <v>1.030905693239783</v>
       </c>
       <c r="K6">
-        <v>1.040708921854697</v>
+        <v>1.035636290126165</v>
       </c>
       <c r="L6">
-        <v>0.8960829188341319</v>
+        <v>1.02866370490974</v>
       </c>
       <c r="M6">
-        <v>0.916330596657406</v>
+        <v>1.038581669289785</v>
       </c>
       <c r="N6">
-        <v>0.8888232907947136</v>
+        <v>1.032369697570719</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.8540022825319787</v>
+        <v>1.02519538463801</v>
       </c>
       <c r="D7">
-        <v>1.030000517939963</v>
+        <v>1.033028113412901</v>
       </c>
       <c r="E7">
-        <v>0.8754052321862309</v>
+        <v>1.025117365847573</v>
       </c>
       <c r="F7">
-        <v>0.8963443697254915</v>
+        <v>1.035091729305032</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040612833923954</v>
+        <v>1.031715525552902</v>
       </c>
       <c r="J7">
-        <v>0.878047026383545</v>
+        <v>1.029777315232447</v>
       </c>
       <c r="K7">
-        <v>1.039746975217236</v>
+        <v>1.035518923737348</v>
       </c>
       <c r="L7">
-        <v>0.8872794336646853</v>
+        <v>1.027628467562771</v>
       </c>
       <c r="M7">
-        <v>0.9078753671710073</v>
+        <v>1.03757730135234</v>
       </c>
       <c r="N7">
-        <v>0.8792939538744111</v>
+        <v>1.031239717137186</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.799857582761768</v>
+        <v>1.019924419897437</v>
       </c>
       <c r="D8">
-        <v>1.024207392013836</v>
+        <v>1.032279436699466</v>
       </c>
       <c r="E8">
-        <v>0.8281706263104358</v>
+        <v>1.020470947661268</v>
       </c>
       <c r="F8">
-        <v>0.8513088110741019</v>
+        <v>1.030577408168158</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036751976777897</v>
+        <v>1.031432208480933</v>
       </c>
       <c r="J8">
-        <v>0.8294424827294672</v>
+        <v>1.025003633461831</v>
       </c>
       <c r="K8">
-        <v>1.035069146280992</v>
+        <v>1.035021391697045</v>
       </c>
       <c r="L8">
-        <v>0.8423208284163732</v>
+        <v>1.023246576884426</v>
       </c>
       <c r="M8">
-        <v>0.8649668773351261</v>
+        <v>1.033324165172427</v>
       </c>
       <c r="N8">
-        <v>0.8306203861933255</v>
+        <v>1.026459256190907</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.799857582761768</v>
+        <v>1.010395942710241</v>
       </c>
       <c r="D9">
-        <v>1.024207392013836</v>
+        <v>1.030938349212857</v>
       </c>
       <c r="E9">
-        <v>0.8281706263104358</v>
+        <v>1.012061390676767</v>
       </c>
       <c r="F9">
-        <v>0.8513088110741019</v>
+        <v>1.022400890610748</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036751976777897</v>
+        <v>1.030902214528256</v>
       </c>
       <c r="J9">
-        <v>0.8294424827294672</v>
+        <v>1.016360320787704</v>
       </c>
       <c r="K9">
-        <v>1.035069146280992</v>
+        <v>1.034117527640776</v>
       </c>
       <c r="L9">
-        <v>0.8423208284163732</v>
+        <v>1.015304089129871</v>
       </c>
       <c r="M9">
-        <v>0.8649668773351261</v>
+        <v>1.025608478093193</v>
       </c>
       <c r="N9">
-        <v>0.8306203861933255</v>
+        <v>1.01780366902138</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.799857582761768</v>
+        <v>1.003865136955737</v>
       </c>
       <c r="D10">
-        <v>1.024207392013836</v>
+        <v>1.030028715266497</v>
       </c>
       <c r="E10">
-        <v>0.8281706263104358</v>
+        <v>1.006290831352109</v>
       </c>
       <c r="F10">
-        <v>0.8513088110741019</v>
+        <v>1.016786847685157</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036751976777897</v>
+        <v>1.030527289269304</v>
       </c>
       <c r="J10">
-        <v>0.8294424827294672</v>
+        <v>1.010426958710374</v>
       </c>
       <c r="K10">
-        <v>1.035069146280992</v>
+        <v>1.033495785085654</v>
       </c>
       <c r="L10">
-        <v>0.8423208284163732</v>
+        <v>1.009846047399647</v>
       </c>
       <c r="M10">
-        <v>0.8649668773351261</v>
+        <v>1.020302527007828</v>
       </c>
       <c r="N10">
-        <v>0.8306203861933255</v>
+        <v>1.011861880889335</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.799857582761768</v>
+        <v>1.000990925782749</v>
       </c>
       <c r="D11">
-        <v>1.024207392013836</v>
+        <v>1.029630924756604</v>
       </c>
       <c r="E11">
-        <v>0.8281706263104358</v>
+        <v>1.003749662181936</v>
       </c>
       <c r="F11">
-        <v>0.8513088110741019</v>
+        <v>1.014313956249759</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036751976777897</v>
+        <v>1.030359602994066</v>
       </c>
       <c r="J11">
-        <v>0.8294424827294672</v>
+        <v>1.007813505766621</v>
       </c>
       <c r="K11">
-        <v>1.035069146280992</v>
+        <v>1.033221801245122</v>
       </c>
       <c r="L11">
-        <v>0.8423208284163732</v>
+        <v>1.007440590443764</v>
       </c>
       <c r="M11">
-        <v>0.8649668773351261</v>
+        <v>1.017963360363739</v>
       </c>
       <c r="N11">
-        <v>0.8306203861933255</v>
+        <v>1.009244716542635</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.799857582761768</v>
+        <v>0.9999159993599543</v>
       </c>
       <c r="D12">
-        <v>1.024207392013836</v>
+        <v>1.02948256029145</v>
       </c>
       <c r="E12">
-        <v>0.8281706263104358</v>
+        <v>1.002799061748618</v>
       </c>
       <c r="F12">
-        <v>0.8513088110741019</v>
+        <v>1.013388813763087</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036751976777897</v>
+        <v>1.030296494775811</v>
       </c>
       <c r="J12">
-        <v>0.8294424827294672</v>
+        <v>1.006835774857923</v>
       </c>
       <c r="K12">
-        <v>1.035069146280992</v>
+        <v>1.033119295937925</v>
       </c>
       <c r="L12">
-        <v>0.8423208284163732</v>
+        <v>1.006540468782242</v>
       </c>
       <c r="M12">
-        <v>0.8649668773351261</v>
+        <v>1.017087947040723</v>
       </c>
       <c r="N12">
-        <v>0.8306203861933255</v>
+        <v>1.008265597143899</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.799857582761768</v>
+        <v>1.000146911721357</v>
       </c>
       <c r="D13">
-        <v>1.024207392013836</v>
+        <v>1.029514412781472</v>
       </c>
       <c r="E13">
-        <v>0.8281706263104358</v>
+        <v>1.003003277056064</v>
       </c>
       <c r="F13">
-        <v>0.8513088110741019</v>
+        <v>1.01358756354116</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036751976777897</v>
+        <v>1.030310069229426</v>
       </c>
       <c r="J13">
-        <v>0.8294424827294672</v>
+        <v>1.007045822667254</v>
       </c>
       <c r="K13">
-        <v>1.035069146280992</v>
+        <v>1.033141317283667</v>
       </c>
       <c r="L13">
-        <v>0.8423208284163732</v>
+        <v>1.006733852913699</v>
       </c>
       <c r="M13">
-        <v>0.8649668773351261</v>
+        <v>1.017276026963831</v>
       </c>
       <c r="N13">
-        <v>0.8306203861933255</v>
+        <v>1.008475943245212</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.799857582761768</v>
+        <v>1.000902223402188</v>
       </c>
       <c r="D14">
-        <v>1.024207392013836</v>
+        <v>1.029618673409837</v>
       </c>
       <c r="E14">
-        <v>0.8281706263104358</v>
+        <v>1.003671223747875</v>
       </c>
       <c r="F14">
-        <v>0.8513088110741019</v>
+        <v>1.014237620084408</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036751976777897</v>
+        <v>1.030354403335992</v>
       </c>
       <c r="J14">
-        <v>0.8294424827294672</v>
+        <v>1.007732830525806</v>
       </c>
       <c r="K14">
-        <v>1.035069146280992</v>
+        <v>1.033213343245516</v>
       </c>
       <c r="L14">
-        <v>0.8423208284163732</v>
+        <v>1.007366323125655</v>
       </c>
       <c r="M14">
-        <v>0.8649668773351261</v>
+        <v>1.017891133588194</v>
       </c>
       <c r="N14">
-        <v>0.8306203861933255</v>
+        <v>1.009163926733724</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.799857582761768</v>
+        <v>1.001366615417362</v>
       </c>
       <c r="D15">
-        <v>1.024207392013836</v>
+        <v>1.029682830743046</v>
       </c>
       <c r="E15">
-        <v>0.8281706263104358</v>
+        <v>1.004081870639534</v>
       </c>
       <c r="F15">
-        <v>0.8513088110741019</v>
+        <v>1.014637257696433</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036751976777897</v>
+        <v>1.030381609506377</v>
       </c>
       <c r="J15">
-        <v>0.8294424827294672</v>
+        <v>1.008155184010005</v>
       </c>
       <c r="K15">
-        <v>1.035069146280992</v>
+        <v>1.033257622752327</v>
       </c>
       <c r="L15">
-        <v>0.8423208284163732</v>
+        <v>1.007755121284556</v>
       </c>
       <c r="M15">
-        <v>0.8649668773351261</v>
+        <v>1.018269245367351</v>
       </c>
       <c r="N15">
-        <v>0.8306203861933255</v>
+        <v>1.009586880008316</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.799857582761768</v>
+        <v>1.004054882794083</v>
       </c>
       <c r="D16">
-        <v>1.024207392013836</v>
+        <v>1.030055031231574</v>
       </c>
       <c r="E16">
-        <v>0.8281706263104358</v>
+        <v>1.006458558854757</v>
       </c>
       <c r="F16">
-        <v>0.8513088110741019</v>
+        <v>1.016950056200913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036751976777897</v>
+        <v>1.030538303870927</v>
       </c>
       <c r="J16">
-        <v>0.8294424827294672</v>
+        <v>1.010599444721636</v>
       </c>
       <c r="K16">
-        <v>1.035069146280992</v>
+        <v>1.03351386644436</v>
       </c>
       <c r="L16">
-        <v>0.8423208284163732</v>
+        <v>1.01000477724179</v>
       </c>
       <c r="M16">
-        <v>0.8649668773351261</v>
+        <v>1.020456868204918</v>
       </c>
       <c r="N16">
-        <v>0.8306203861933255</v>
+        <v>1.012034611850517</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.799857582761768</v>
+        <v>1.005728512389167</v>
       </c>
       <c r="D17">
-        <v>1.024207392013836</v>
+        <v>1.030287441719541</v>
       </c>
       <c r="E17">
-        <v>0.8281706263104358</v>
+        <v>1.007937802134501</v>
       </c>
       <c r="F17">
-        <v>0.8513088110741019</v>
+        <v>1.018389372636284</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036751976777897</v>
+        <v>1.030635150584599</v>
       </c>
       <c r="J17">
-        <v>0.8294424827294672</v>
+        <v>1.012120586983406</v>
       </c>
       <c r="K17">
-        <v>1.035069146280992</v>
+        <v>1.033673312048767</v>
       </c>
       <c r="L17">
-        <v>0.8423208284163732</v>
+        <v>1.01140444830275</v>
       </c>
       <c r="M17">
-        <v>0.8649668773351261</v>
+        <v>1.021817757501127</v>
       </c>
       <c r="N17">
-        <v>0.8306203861933255</v>
+        <v>1.013557914308777</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.799857582761768</v>
+        <v>1.00670026705781</v>
       </c>
       <c r="D18">
-        <v>1.024207392013836</v>
+        <v>1.030422626646426</v>
       </c>
       <c r="E18">
-        <v>0.8281706263104358</v>
+        <v>1.008796543182847</v>
       </c>
       <c r="F18">
-        <v>0.8513088110741019</v>
+        <v>1.019224872315401</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036751976777897</v>
+        <v>1.030691125666062</v>
       </c>
       <c r="J18">
-        <v>0.8294424827294672</v>
+        <v>1.013003595237401</v>
       </c>
       <c r="K18">
-        <v>1.035069146280992</v>
+        <v>1.033765855574853</v>
       </c>
       <c r="L18">
-        <v>0.8423208284163732</v>
+        <v>1.012216813112347</v>
       </c>
       <c r="M18">
-        <v>0.8649668773351261</v>
+        <v>1.022607542043591</v>
       </c>
       <c r="N18">
-        <v>0.8306203861933255</v>
+        <v>1.014442176535774</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.799857582761768</v>
+        <v>1.00703086683481</v>
       </c>
       <c r="D19">
-        <v>1.024207392013836</v>
+        <v>1.030468657980575</v>
       </c>
       <c r="E19">
-        <v>0.8281706263104358</v>
+        <v>1.009088669553481</v>
       </c>
       <c r="F19">
-        <v>0.8513088110741019</v>
+        <v>1.019509081389879</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036751976777897</v>
+        <v>1.030710125123737</v>
       </c>
       <c r="J19">
-        <v>0.8294424827294672</v>
+        <v>1.013303967326501</v>
       </c>
       <c r="K19">
-        <v>1.035069146280992</v>
+        <v>1.033797333351537</v>
       </c>
       <c r="L19">
-        <v>0.8423208284163732</v>
+        <v>1.012493132327152</v>
       </c>
       <c r="M19">
-        <v>0.8649668773351261</v>
+        <v>1.022876168247953</v>
       </c>
       <c r="N19">
-        <v>0.8306203861933255</v>
+        <v>1.014742975187694</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.799857582761768</v>
+        <v>1.005549410073717</v>
       </c>
       <c r="D20">
-        <v>1.024207392013836</v>
+        <v>1.030262545321156</v>
       </c>
       <c r="E20">
-        <v>0.8281706263104358</v>
+        <v>1.007779517213012</v>
       </c>
       <c r="F20">
-        <v>0.8513088110741019</v>
+        <v>1.018235366450709</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036751976777897</v>
+        <v>1.030624813149593</v>
       </c>
       <c r="J20">
-        <v>0.8294424827294672</v>
+        <v>1.011957824550456</v>
       </c>
       <c r="K20">
-        <v>1.035069146280992</v>
+        <v>1.033656252597007</v>
       </c>
       <c r="L20">
-        <v>0.8423208284163732</v>
+        <v>1.011254696836417</v>
       </c>
       <c r="M20">
-        <v>0.8649668773351261</v>
+        <v>1.021672162623242</v>
       </c>
       <c r="N20">
-        <v>0.8306203861933255</v>
+        <v>1.013394920734502</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.799857582761768</v>
+        <v>1.000680007854547</v>
       </c>
       <c r="D21">
-        <v>1.024207392013836</v>
+        <v>1.029587988181172</v>
       </c>
       <c r="E21">
-        <v>0.8281706263104358</v>
+        <v>1.003474717575631</v>
       </c>
       <c r="F21">
-        <v>0.8513088110741019</v>
+        <v>1.014046379278065</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036751976777897</v>
+        <v>1.030341370902386</v>
       </c>
       <c r="J21">
-        <v>0.8294424827294672</v>
+        <v>1.007530719175537</v>
       </c>
       <c r="K21">
-        <v>1.035069146280992</v>
+        <v>1.033192153861156</v>
       </c>
       <c r="L21">
-        <v>0.8423208284163732</v>
+        <v>1.007180261894089</v>
       </c>
       <c r="M21">
-        <v>0.8649668773351261</v>
+        <v>1.017710182983904</v>
       </c>
       <c r="N21">
-        <v>0.8306203861933255</v>
+        <v>1.008961528362155</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.799857582761768</v>
+        <v>0.9975759015947813</v>
       </c>
       <c r="D22">
-        <v>1.024207392013836</v>
+        <v>1.029160342928275</v>
       </c>
       <c r="E22">
-        <v>0.8281706263104358</v>
+        <v>1.000729204590557</v>
       </c>
       <c r="F22">
-        <v>0.8513088110741019</v>
+        <v>1.011374251878006</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036751976777897</v>
+        <v>1.030158392815347</v>
       </c>
       <c r="J22">
-        <v>0.8294424827294672</v>
+        <v>1.004706675024057</v>
       </c>
       <c r="K22">
-        <v>1.035069146280992</v>
+        <v>1.032896090672458</v>
       </c>
       <c r="L22">
-        <v>0.8423208284163732</v>
+        <v>1.004579994409794</v>
       </c>
       <c r="M22">
-        <v>0.8649668773351261</v>
+        <v>1.015181124007475</v>
       </c>
       <c r="N22">
-        <v>0.8306203861933255</v>
+        <v>1.006133473744057</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.799857582761768</v>
+        <v>0.9992256009589168</v>
       </c>
       <c r="D23">
-        <v>1.024207392013836</v>
+        <v>1.02938738662091</v>
       </c>
       <c r="E23">
-        <v>0.8281706263104358</v>
+        <v>1.002188450934511</v>
       </c>
       <c r="F23">
-        <v>0.8513088110741019</v>
+        <v>1.012794533941582</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036751976777897</v>
+        <v>1.030255851605459</v>
       </c>
       <c r="J23">
-        <v>0.8294424827294672</v>
+        <v>1.006207711251992</v>
       </c>
       <c r="K23">
-        <v>1.035069146280992</v>
+        <v>1.033053450541328</v>
       </c>
       <c r="L23">
-        <v>0.8423208284163732</v>
+        <v>1.005962201196579</v>
       </c>
       <c r="M23">
-        <v>0.8649668773351261</v>
+        <v>1.01652552716082</v>
       </c>
       <c r="N23">
-        <v>0.8306203861933255</v>
+        <v>1.007636641615608</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.799857582761768</v>
+        <v>1.005630352412625</v>
       </c>
       <c r="D24">
-        <v>1.024207392013836</v>
+        <v>1.030273796093277</v>
       </c>
       <c r="E24">
-        <v>0.8281706263104358</v>
+        <v>1.007851051931349</v>
       </c>
       <c r="F24">
-        <v>0.8513088110741019</v>
+        <v>1.018304967647868</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036751976777897</v>
+        <v>1.030629485778444</v>
       </c>
       <c r="J24">
-        <v>0.8294424827294672</v>
+        <v>1.012031382993403</v>
       </c>
       <c r="K24">
-        <v>1.035069146280992</v>
+        <v>1.033663962444249</v>
       </c>
       <c r="L24">
-        <v>0.8423208284163732</v>
+        <v>1.011322375540384</v>
       </c>
       <c r="M24">
-        <v>0.8649668773351261</v>
+        <v>1.021737963020185</v>
       </c>
       <c r="N24">
-        <v>0.8306203861933255</v>
+        <v>1.013468583638875</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.799857582761768</v>
+        <v>1.012889457579419</v>
       </c>
       <c r="D25">
-        <v>1.024207392013836</v>
+        <v>1.03128772873276</v>
       </c>
       <c r="E25">
-        <v>0.8281706263104358</v>
+        <v>1.014263264841156</v>
       </c>
       <c r="F25">
-        <v>0.8513088110741019</v>
+        <v>1.024542389085463</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036751976777897</v>
+        <v>1.031042966980155</v>
       </c>
       <c r="J25">
-        <v>0.8294424827294672</v>
+        <v>1.018623810091621</v>
       </c>
       <c r="K25">
-        <v>1.035069146280992</v>
+        <v>1.034354506654266</v>
       </c>
       <c r="L25">
-        <v>0.8423208284163732</v>
+        <v>1.017385052638039</v>
       </c>
       <c r="M25">
-        <v>0.8649668773351261</v>
+        <v>1.027630723281262</v>
       </c>
       <c r="N25">
-        <v>0.8306203861933255</v>
+        <v>1.020070372739736</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_72/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_72/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018551740108789</v>
+        <v>0.7817158469799821</v>
       </c>
       <c r="D2">
-        <v>1.032085247126693</v>
+        <v>1.022442482502207</v>
       </c>
       <c r="E2">
-        <v>1.019260231493731</v>
+        <v>0.8124096476474583</v>
       </c>
       <c r="F2">
-        <v>1.029400682875663</v>
+        <v>0.836408920345046</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031357216112601</v>
+        <v>1.035497413569695</v>
       </c>
       <c r="J2">
-        <v>1.023759529937032</v>
+        <v>0.813187853026107</v>
       </c>
       <c r="K2">
-        <v>1.03489149598025</v>
+        <v>1.033597767183443</v>
       </c>
       <c r="L2">
-        <v>1.022104006589257</v>
+        <v>0.8272938968941389</v>
       </c>
       <c r="M2">
-        <v>1.032214702682984</v>
+        <v>0.8507409024287417</v>
       </c>
       <c r="N2">
-        <v>1.025213385896405</v>
+        <v>0.8143426730513542</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02259471592138</v>
+        <v>0.8295877412089018</v>
       </c>
       <c r="D3">
-        <v>1.032658129095715</v>
+        <v>1.027291110609567</v>
       </c>
       <c r="E3">
-        <v>1.022825377187387</v>
+        <v>0.8540749142307669</v>
       </c>
       <c r="F3">
-        <v>1.03286524420154</v>
+        <v>0.8759416050806971</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03157668253968</v>
+        <v>1.038853004796074</v>
       </c>
       <c r="J3">
-        <v>1.027422724284277</v>
+        <v>0.856117553894462</v>
       </c>
       <c r="K3">
-        <v>1.035273708230464</v>
+        <v>1.037586310230382</v>
       </c>
       <c r="L3">
-        <v>1.025467570921765</v>
+        <v>0.8669920735478972</v>
       </c>
       <c r="M3">
-        <v>1.035480268625895</v>
+        <v>0.8884535120397099</v>
       </c>
       <c r="N3">
-        <v>1.028881782399794</v>
+        <v>0.8573333390190481</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025180922297191</v>
+        <v>0.8538757049280137</v>
       </c>
       <c r="D4">
-        <v>1.033026052783916</v>
+        <v>1.029986061538758</v>
       </c>
       <c r="E4">
-        <v>1.025104623030046</v>
+        <v>0.8752945319393087</v>
       </c>
       <c r="F4">
-        <v>1.035079352626473</v>
+        <v>0.8962382298522124</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031714758696313</v>
+        <v>1.04060364475607</v>
       </c>
       <c r="J4">
-        <v>1.029764225318075</v>
+        <v>0.8779332964572766</v>
       </c>
       <c r="K4">
-        <v>1.035517561627465</v>
+        <v>1.039735565583882</v>
       </c>
       <c r="L4">
-        <v>1.027616456917203</v>
+        <v>0.8871742164411661</v>
       </c>
       <c r="M4">
-        <v>1.037565647778943</v>
+        <v>0.9077744078533337</v>
       </c>
       <c r="N4">
-        <v>1.031226608633634</v>
+        <v>0.8791800624386025</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026261261467706</v>
+        <v>0.8630927540938659</v>
       </c>
       <c r="D5">
-        <v>1.033180078000812</v>
+        <v>1.031049842108804</v>
       </c>
       <c r="E5">
-        <v>1.026056420764929</v>
+        <v>0.8833581615309319</v>
       </c>
       <c r="F5">
-        <v>1.036003739637638</v>
+        <v>0.9039761733727352</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031771877700203</v>
+        <v>1.041274271055195</v>
       </c>
       <c r="J5">
-        <v>1.030741918991965</v>
+        <v>0.8862154707177012</v>
       </c>
       <c r="K5">
-        <v>1.035619261703682</v>
+        <v>1.040571847982413</v>
       </c>
       <c r="L5">
-        <v>1.028513462220322</v>
+        <v>0.8948364182873648</v>
       </c>
       <c r="M5">
-        <v>1.038435918074989</v>
+        <v>0.9151324619203672</v>
       </c>
       <c r="N5">
-        <v>1.032205690744684</v>
+        <v>0.8874739983364557</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02644225750902</v>
+        <v>0.8645921042102015</v>
       </c>
       <c r="D6">
-        <v>1.033205901772067</v>
+        <v>1.031225014060346</v>
       </c>
       <c r="E6">
-        <v>1.026215862923247</v>
+        <v>0.8846703855225146</v>
       </c>
       <c r="F6">
-        <v>1.03615857742619</v>
+        <v>0.9052366190576477</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031781414182662</v>
+        <v>1.041383630929707</v>
       </c>
       <c r="J6">
-        <v>1.030905693239783</v>
+        <v>0.8875628497431949</v>
       </c>
       <c r="K6">
-        <v>1.035636290126165</v>
+        <v>1.040708921854697</v>
       </c>
       <c r="L6">
-        <v>1.02866370490974</v>
+        <v>0.8960829188341306</v>
       </c>
       <c r="M6">
-        <v>1.038581669289785</v>
+        <v>0.9163305966574046</v>
       </c>
       <c r="N6">
-        <v>1.032369697570719</v>
+        <v>0.8888232907947118</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02519538463801</v>
+        <v>0.854002282531978</v>
       </c>
       <c r="D7">
-        <v>1.033028113412901</v>
+        <v>1.030000517939963</v>
       </c>
       <c r="E7">
-        <v>1.025117365847573</v>
+        <v>0.8754052321862301</v>
       </c>
       <c r="F7">
-        <v>1.035091729305032</v>
+        <v>0.8963443697254914</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031715525552902</v>
+        <v>1.040612833923954</v>
       </c>
       <c r="J7">
-        <v>1.029777315232447</v>
+        <v>0.8780470263835445</v>
       </c>
       <c r="K7">
-        <v>1.035518923737348</v>
+        <v>1.039746975217236</v>
       </c>
       <c r="L7">
-        <v>1.027628467562771</v>
+        <v>0.8872794336646846</v>
       </c>
       <c r="M7">
-        <v>1.03757730135234</v>
+        <v>0.9078753671710071</v>
       </c>
       <c r="N7">
-        <v>1.031239717137186</v>
+        <v>0.8792939538744109</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019924419897437</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D8">
-        <v>1.032279436699466</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E8">
-        <v>1.020470947661268</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F8">
-        <v>1.030577408168158</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031432208480933</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J8">
-        <v>1.025003633461831</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K8">
-        <v>1.035021391697045</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L8">
-        <v>1.023246576884426</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M8">
-        <v>1.033324165172427</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N8">
-        <v>1.026459256190907</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010395942710241</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D9">
-        <v>1.030938349212857</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E9">
-        <v>1.012061390676767</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F9">
-        <v>1.022400890610748</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030902214528256</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J9">
-        <v>1.016360320787704</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K9">
-        <v>1.034117527640776</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L9">
-        <v>1.015304089129871</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M9">
-        <v>1.025608478093193</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N9">
-        <v>1.01780366902138</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003865136955737</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D10">
-        <v>1.030028715266497</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E10">
-        <v>1.006290831352109</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F10">
-        <v>1.016786847685157</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030527289269304</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J10">
-        <v>1.010426958710374</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K10">
-        <v>1.033495785085654</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L10">
-        <v>1.009846047399647</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M10">
-        <v>1.020302527007828</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N10">
-        <v>1.011861880889335</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000990925782749</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D11">
-        <v>1.029630924756604</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E11">
-        <v>1.003749662181936</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F11">
-        <v>1.014313956249759</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030359602994066</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J11">
-        <v>1.007813505766621</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K11">
-        <v>1.033221801245122</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L11">
-        <v>1.007440590443764</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M11">
-        <v>1.017963360363739</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N11">
-        <v>1.009244716542635</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9999159993599543</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D12">
-        <v>1.02948256029145</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E12">
-        <v>1.002799061748618</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F12">
-        <v>1.013388813763087</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030296494775811</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J12">
-        <v>1.006835774857923</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K12">
-        <v>1.033119295937925</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L12">
-        <v>1.006540468782242</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M12">
-        <v>1.017087947040723</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N12">
-        <v>1.008265597143899</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000146911721357</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D13">
-        <v>1.029514412781472</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E13">
-        <v>1.003003277056064</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F13">
-        <v>1.01358756354116</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030310069229426</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J13">
-        <v>1.007045822667254</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K13">
-        <v>1.033141317283667</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L13">
-        <v>1.006733852913699</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M13">
-        <v>1.017276026963831</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N13">
-        <v>1.008475943245212</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000902223402188</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D14">
-        <v>1.029618673409837</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E14">
-        <v>1.003671223747875</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F14">
-        <v>1.014237620084408</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030354403335992</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J14">
-        <v>1.007732830525806</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K14">
-        <v>1.033213343245516</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L14">
-        <v>1.007366323125655</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M14">
-        <v>1.017891133588194</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N14">
-        <v>1.009163926733724</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001366615417362</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D15">
-        <v>1.029682830743046</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E15">
-        <v>1.004081870639534</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F15">
-        <v>1.014637257696433</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030381609506377</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J15">
-        <v>1.008155184010005</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K15">
-        <v>1.033257622752327</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L15">
-        <v>1.007755121284556</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M15">
-        <v>1.018269245367351</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N15">
-        <v>1.009586880008316</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004054882794083</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D16">
-        <v>1.030055031231574</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E16">
-        <v>1.006458558854757</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F16">
-        <v>1.016950056200913</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030538303870927</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J16">
-        <v>1.010599444721636</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K16">
-        <v>1.03351386644436</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L16">
-        <v>1.01000477724179</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M16">
-        <v>1.020456868204918</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N16">
-        <v>1.012034611850517</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005728512389167</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D17">
-        <v>1.030287441719541</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E17">
-        <v>1.007937802134501</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F17">
-        <v>1.018389372636284</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030635150584599</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J17">
-        <v>1.012120586983406</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K17">
-        <v>1.033673312048767</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L17">
-        <v>1.01140444830275</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M17">
-        <v>1.021817757501127</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N17">
-        <v>1.013557914308777</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00670026705781</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D18">
-        <v>1.030422626646426</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E18">
-        <v>1.008796543182847</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F18">
-        <v>1.019224872315401</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030691125666062</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J18">
-        <v>1.013003595237401</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K18">
-        <v>1.033765855574853</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L18">
-        <v>1.012216813112347</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M18">
-        <v>1.022607542043591</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N18">
-        <v>1.014442176535774</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00703086683481</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D19">
-        <v>1.030468657980575</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E19">
-        <v>1.009088669553481</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F19">
-        <v>1.019509081389879</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030710125123737</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J19">
-        <v>1.013303967326501</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K19">
-        <v>1.033797333351537</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L19">
-        <v>1.012493132327152</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M19">
-        <v>1.022876168247953</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N19">
-        <v>1.014742975187694</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005549410073717</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D20">
-        <v>1.030262545321156</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E20">
-        <v>1.007779517213012</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F20">
-        <v>1.018235366450709</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030624813149593</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J20">
-        <v>1.011957824550456</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K20">
-        <v>1.033656252597007</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L20">
-        <v>1.011254696836417</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M20">
-        <v>1.021672162623242</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N20">
-        <v>1.013394920734502</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000680007854547</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D21">
-        <v>1.029587988181172</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E21">
-        <v>1.003474717575631</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F21">
-        <v>1.014046379278065</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030341370902386</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J21">
-        <v>1.007530719175537</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K21">
-        <v>1.033192153861156</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L21">
-        <v>1.007180261894089</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M21">
-        <v>1.017710182983904</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N21">
-        <v>1.008961528362155</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9975759015947813</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D22">
-        <v>1.029160342928275</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E22">
-        <v>1.000729204590557</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F22">
-        <v>1.011374251878006</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030158392815347</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J22">
-        <v>1.004706675024057</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K22">
-        <v>1.032896090672458</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L22">
-        <v>1.004579994409794</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M22">
-        <v>1.015181124007475</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N22">
-        <v>1.006133473744057</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9992256009589168</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D23">
-        <v>1.02938738662091</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E23">
-        <v>1.002188450934511</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F23">
-        <v>1.012794533941582</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030255851605459</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J23">
-        <v>1.006207711251992</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K23">
-        <v>1.033053450541328</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L23">
-        <v>1.005962201196579</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M23">
-        <v>1.01652552716082</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N23">
-        <v>1.007636641615608</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005630352412625</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D24">
-        <v>1.030273796093277</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E24">
-        <v>1.007851051931349</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F24">
-        <v>1.018304967647868</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030629485778444</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J24">
-        <v>1.012031382993403</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K24">
-        <v>1.033663962444249</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L24">
-        <v>1.011322375540384</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M24">
-        <v>1.021737963020185</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N24">
-        <v>1.013468583638875</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012889457579419</v>
+        <v>0.7998575827617671</v>
       </c>
       <c r="D25">
-        <v>1.03128772873276</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E25">
-        <v>1.014263264841156</v>
+        <v>0.8281706263104351</v>
       </c>
       <c r="F25">
-        <v>1.024542389085463</v>
+        <v>0.8513088110741014</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031042966980155</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J25">
-        <v>1.018623810091621</v>
+        <v>0.8294424827294663</v>
       </c>
       <c r="K25">
-        <v>1.034354506654266</v>
+        <v>1.035069146280992</v>
       </c>
       <c r="L25">
-        <v>1.017385052638039</v>
+        <v>0.8423208284163726</v>
       </c>
       <c r="M25">
-        <v>1.027630723281262</v>
+        <v>0.8649668773351255</v>
       </c>
       <c r="N25">
-        <v>1.020070372739736</v>
+        <v>0.8306203861933248</v>
       </c>
     </row>
   </sheetData>
